--- a/sampleData.xlsx
+++ b/sampleData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drives\Primary\Study\Uni Work\2020\S2\SWE30010\local\DP2_pass\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveswinburneeduau-my.sharepoint.com/personal/101100655_student_swin_edu_au/Documents/2020 - Semester 2/DP2/Project/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB8EF88B-26E2-4CE6-938E-2D478B36A621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{CB8EF88B-26E2-4CE6-938E-2D478B36A621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8FA26D92-9715-40C8-B2DD-A67A37EBCF9F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{25C7DEC9-8646-4E75-80FE-42F1C3BFF1FC}"/>
+    <workbookView xWindow="690" yWindow="4995" windowWidth="12330" windowHeight="11055" activeTab="3" xr2:uid="{25C7DEC9-8646-4E75-80FE-42F1C3BFF1FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -1046,8 +1046,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/sampleData.xlsx
+++ b/sampleData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveswinburneeduau-my.sharepoint.com/personal/101100655_student_swin_edu_au/Documents/2020 - Semester 2/DP2/Project/GitHub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/89834c650c126c85/Documents/GitHub/DP2_pass/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3" documentId="8_{CB8EF88B-26E2-4CE6-938E-2D478B36A621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8FA26D92-9715-40C8-B2DD-A67A37EBCF9F}"/>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
